--- a/results/tables/rankings/Most_reported_ADR_for_inter_drugs.xlsx
+++ b/results/tables/rankings/Most_reported_ADR_for_inter_drugs.xlsx
@@ -1,68 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SCUOLA\2. UNI\3.Ricerca\Assegno_di_ricerca\Repositories\UNIBO\Fellowship\Pharmacovigilance\Interacting_Drugs\results\tables\rankings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401BFC8-550D-44A6-AEB6-8BC01F902FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>drug interaction</t>
-  </si>
-  <si>
-    <t>toxicity to various agents</t>
-  </si>
-  <si>
-    <t>acute kidney injury</t>
-  </si>
-  <si>
-    <t>labelled drug-drug interaction medication error</t>
-  </si>
-  <si>
-    <t>off label use</t>
-  </si>
-  <si>
-    <t>drug ineffective</t>
-  </si>
-  <si>
-    <t>nausea</t>
-  </si>
-  <si>
-    <t>dizziness</t>
-  </si>
-  <si>
-    <t>fatigue</t>
-  </si>
-  <si>
-    <t>international normalised ratio increased</t>
-  </si>
-  <si>
-    <t>Reac</t>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toxicity to various agents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acute kidney injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labelled drug-drug interaction medication error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">off label use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug ineffective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nausea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dizziness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatigue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">international normalised ratio increased</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -71,21 +64,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -93,166 +80,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -534,109 +372,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E4:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="44" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="4" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="7" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>77512</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>77512</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6375</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5857</v>
-      </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4395</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4091</v>
-      </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3255</v>
-      </c>
-    </row>
-    <row r="15" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="B11" t="n">
         <v>3138</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>